--- a/natmiOut/OldD4/LR-pairs_lrc2p/Jam2-F11r.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Jam2-F11r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>F11r</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>87.8619383134192</v>
+        <v>90.93578100000001</v>
       </c>
       <c r="H2">
-        <v>87.8619383134192</v>
+        <v>272.807343</v>
       </c>
       <c r="I2">
-        <v>0.9509974722689662</v>
+        <v>0.9464306336362939</v>
       </c>
       <c r="J2">
-        <v>0.9509974722689662</v>
+        <v>0.9526128641701582</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.3852047164973</v>
+        <v>30.90614433333333</v>
       </c>
       <c r="N2">
-        <v>28.3852047164973</v>
+        <v>92.718433</v>
       </c>
       <c r="O2">
-        <v>0.7406048690517881</v>
+        <v>0.713998684801744</v>
       </c>
       <c r="P2">
-        <v>0.7406048690517881</v>
+        <v>0.719302559836422</v>
       </c>
       <c r="Q2">
-        <v>2493.979105814662</v>
+        <v>2810.474372650391</v>
       </c>
       <c r="R2">
-        <v>2493.979105814662</v>
+        <v>25294.26935385352</v>
       </c>
       <c r="S2">
-        <v>0.7043133584183393</v>
+        <v>0.675750227672395</v>
       </c>
       <c r="T2">
-        <v>0.7043133584183393</v>
+        <v>0.6852168717307006</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>87.8619383134192</v>
+        <v>90.93578100000001</v>
       </c>
       <c r="H3">
-        <v>87.8619383134192</v>
+        <v>272.807343</v>
       </c>
       <c r="I3">
-        <v>0.9509974722689662</v>
+        <v>0.9464306336362939</v>
       </c>
       <c r="J3">
-        <v>0.9509974722689662</v>
+        <v>0.9526128641701582</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.21481754426855</v>
+        <v>7.081622</v>
       </c>
       <c r="N3">
-        <v>5.21481754426855</v>
+        <v>21.244866</v>
       </c>
       <c r="O3">
-        <v>0.1360609973778818</v>
+        <v>0.1636007629981116</v>
       </c>
       <c r="P3">
-        <v>0.1360609973778818</v>
+        <v>0.1648160565567557</v>
       </c>
       <c r="Q3">
-        <v>458.1839773902596</v>
+        <v>643.9728273167821</v>
       </c>
       <c r="R3">
-        <v>458.1839773902596</v>
+        <v>5795.755445851039</v>
       </c>
       <c r="S3">
-        <v>0.12939366458076</v>
+        <v>0.1548367737876839</v>
       </c>
       <c r="T3">
-        <v>0.12939366458076</v>
+        <v>0.1570058956977619</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>87.8619383134192</v>
+        <v>90.93578100000001</v>
       </c>
       <c r="H4">
-        <v>87.8619383134192</v>
+        <v>272.807343</v>
       </c>
       <c r="I4">
-        <v>0.9509974722689662</v>
+        <v>0.9464306336362939</v>
       </c>
       <c r="J4">
-        <v>0.9509974722689662</v>
+        <v>0.9526128641701582</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.78500075698686</v>
+        <v>4.340704333333334</v>
       </c>
       <c r="N4">
-        <v>3.78500075698686</v>
+        <v>13.022113</v>
       </c>
       <c r="O4">
-        <v>0.09875532052654094</v>
+        <v>0.1002796450986148</v>
       </c>
       <c r="P4">
-        <v>0.09875532052654094</v>
+        <v>0.1010245634261221</v>
       </c>
       <c r="Q4">
-        <v>332.5575030266245</v>
+        <v>394.7253386417511</v>
       </c>
       <c r="R4">
-        <v>332.5575030266245</v>
+        <v>3552.528047775759</v>
       </c>
       <c r="S4">
-        <v>0.093916060193852</v>
+        <v>0.09490772805150466</v>
       </c>
       <c r="T4">
-        <v>0.093916060193852</v>
+        <v>0.09623729871689796</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>87.8619383134192</v>
+        <v>90.93578100000001</v>
       </c>
       <c r="H5">
-        <v>87.8619383134192</v>
+        <v>272.807343</v>
       </c>
       <c r="I5">
-        <v>0.9509974722689662</v>
+        <v>0.9464306336362939</v>
       </c>
       <c r="J5">
-        <v>0.9509974722689662</v>
+        <v>0.9526128641701582</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.942033558096526</v>
+        <v>0.9575255</v>
       </c>
       <c r="N5">
-        <v>0.942033558096526</v>
+        <v>1.915051</v>
       </c>
       <c r="O5">
-        <v>0.0245788130437891</v>
+        <v>0.02212090710152961</v>
       </c>
       <c r="P5">
-        <v>0.0245788130437891</v>
+        <v>0.0148568201807002</v>
       </c>
       <c r="Q5">
-        <v>82.76889437064777</v>
+        <v>87.07332916991551</v>
       </c>
       <c r="R5">
-        <v>82.76889437064777</v>
+        <v>522.439975019493</v>
       </c>
       <c r="S5">
-        <v>0.02337438907601493</v>
+        <v>0.02093590412471026</v>
       </c>
       <c r="T5">
-        <v>0.02337438907601493</v>
+        <v>0.01415279802479783</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.68939051379992</v>
+        <v>2.957564333333333</v>
       </c>
       <c r="H6">
-        <v>2.68939051379992</v>
+        <v>8.872693</v>
       </c>
       <c r="I6">
-        <v>0.02910934620454687</v>
+        <v>0.0307813872079327</v>
       </c>
       <c r="J6">
-        <v>0.02910934620454687</v>
+        <v>0.03098245596575644</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.3852047164973</v>
+        <v>30.90614433333333</v>
       </c>
       <c r="N6">
-        <v>28.3852047164973</v>
+        <v>92.718433</v>
       </c>
       <c r="O6">
-        <v>0.7406048690517881</v>
+        <v>0.713998684801744</v>
       </c>
       <c r="P6">
-        <v>0.7406048690517881</v>
+        <v>0.719302559836422</v>
       </c>
       <c r="Q6">
-        <v>76.33890029681658</v>
+        <v>91.40691016111879</v>
       </c>
       <c r="R6">
-        <v>76.33890029681658</v>
+        <v>822.662191450069</v>
       </c>
       <c r="S6">
-        <v>0.0215585235340016</v>
+        <v>0.02197786998283718</v>
       </c>
       <c r="T6">
-        <v>0.0215585235340016</v>
+        <v>0.02228575988618783</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.68939051379992</v>
+        <v>2.957564333333333</v>
       </c>
       <c r="H7">
-        <v>2.68939051379992</v>
+        <v>8.872693</v>
       </c>
       <c r="I7">
-        <v>0.02910934620454687</v>
+        <v>0.0307813872079327</v>
       </c>
       <c r="J7">
-        <v>0.02910934620454687</v>
+        <v>0.03098245596575644</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.21481754426855</v>
+        <v>7.081622</v>
       </c>
       <c r="N7">
-        <v>5.21481754426855</v>
+        <v>21.244866</v>
       </c>
       <c r="O7">
-        <v>0.1360609973778818</v>
+        <v>0.1636007629981116</v>
       </c>
       <c r="P7">
-        <v>0.1360609973778818</v>
+        <v>0.1648160565567557</v>
       </c>
       <c r="Q7">
-        <v>14.02468083475323</v>
+        <v>20.94435264934867</v>
       </c>
       <c r="R7">
-        <v>14.02468083475323</v>
+        <v>188.499173844138</v>
       </c>
       <c r="S7">
-        <v>0.003960646677608704</v>
+        <v>0.005035858433358102</v>
       </c>
       <c r="T7">
-        <v>0.003960646677608704</v>
+        <v>0.005106406214719307</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.68939051379992</v>
+        <v>2.957564333333333</v>
       </c>
       <c r="H8">
-        <v>2.68939051379992</v>
+        <v>8.872693</v>
       </c>
       <c r="I8">
-        <v>0.02910934620454687</v>
+        <v>0.0307813872079327</v>
       </c>
       <c r="J8">
-        <v>0.02910934620454687</v>
+        <v>0.03098245596575644</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.78500075698686</v>
+        <v>4.340704333333334</v>
       </c>
       <c r="N8">
-        <v>3.78500075698686</v>
+        <v>13.022113</v>
       </c>
       <c r="O8">
-        <v>0.09875532052654094</v>
+        <v>0.1002796450986148</v>
       </c>
       <c r="P8">
-        <v>0.09875532052654094</v>
+        <v>0.1010245634261221</v>
       </c>
       <c r="Q8">
-        <v>10.17934513056598</v>
+        <v>12.83791231781211</v>
       </c>
       <c r="R8">
-        <v>10.17934513056598</v>
+        <v>115.541210860309</v>
       </c>
       <c r="S8">
-        <v>0.002874702814748074</v>
+        <v>0.003086746584854532</v>
       </c>
       <c r="T8">
-        <v>0.002874702814748074</v>
+        <v>0.003129989087809595</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.68939051379992</v>
+        <v>2.957564333333333</v>
       </c>
       <c r="H9">
-        <v>2.68939051379992</v>
+        <v>8.872693</v>
       </c>
       <c r="I9">
-        <v>0.02910934620454687</v>
+        <v>0.0307813872079327</v>
       </c>
       <c r="J9">
-        <v>0.02910934620454687</v>
+        <v>0.03098245596575644</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.942033558096526</v>
+        <v>0.9575255</v>
       </c>
       <c r="N9">
-        <v>0.942033558096526</v>
+        <v>1.915051</v>
       </c>
       <c r="O9">
-        <v>0.0245788130437891</v>
+        <v>0.02212090710152961</v>
       </c>
       <c r="P9">
-        <v>0.0245788130437891</v>
+        <v>0.0148568201807002</v>
       </c>
       <c r="Q9">
-        <v>2.533496114825983</v>
+        <v>2.831943267057167</v>
       </c>
       <c r="R9">
-        <v>2.533496114825983</v>
+        <v>16.991659602343</v>
       </c>
       <c r="S9">
-        <v>0.0007154731781884894</v>
+        <v>0.0006809122068828911</v>
       </c>
       <c r="T9">
-        <v>0.0007154731781884894</v>
+        <v>0.0004603007770397057</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.83791601881724</v>
+        <v>0.1730576666666667</v>
       </c>
       <c r="H10">
-        <v>1.83791601881724</v>
+        <v>0.519173</v>
       </c>
       <c r="I10">
-        <v>0.01989318152648684</v>
+        <v>0.001801129053028663</v>
       </c>
       <c r="J10">
-        <v>0.01989318152648684</v>
+        <v>0.001812894305157371</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.3852047164973</v>
+        <v>30.90614433333333</v>
       </c>
       <c r="N10">
-        <v>28.3852047164973</v>
+        <v>92.718433</v>
       </c>
       <c r="O10">
-        <v>0.7406048690517881</v>
+        <v>0.713998684801744</v>
       </c>
       <c r="P10">
-        <v>0.7406048690517881</v>
+        <v>0.719302559836422</v>
       </c>
       <c r="Q10">
-        <v>52.16962244585706</v>
+        <v>5.348545223989889</v>
       </c>
       <c r="R10">
-        <v>52.16962244585706</v>
+        <v>48.136907015909</v>
       </c>
       <c r="S10">
-        <v>0.01473298709944724</v>
+        <v>0.001286003775020676</v>
       </c>
       <c r="T10">
-        <v>0.01473298709944724</v>
+        <v>0.001304019514412568</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.83791601881724</v>
+        <v>0.1730576666666667</v>
       </c>
       <c r="H11">
-        <v>1.83791601881724</v>
+        <v>0.519173</v>
       </c>
       <c r="I11">
-        <v>0.01989318152648684</v>
+        <v>0.001801129053028663</v>
       </c>
       <c r="J11">
-        <v>0.01989318152648684</v>
+        <v>0.001812894305157371</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.21481754426855</v>
+        <v>7.081622</v>
       </c>
       <c r="N11">
-        <v>5.21481754426855</v>
+        <v>21.244866</v>
       </c>
       <c r="O11">
-        <v>0.1360609973778818</v>
+        <v>0.1636007629981116</v>
       </c>
       <c r="P11">
-        <v>0.1360609973778818</v>
+        <v>0.1648160565567557</v>
       </c>
       <c r="Q11">
-        <v>9.584396699820351</v>
+        <v>1.225528979535333</v>
       </c>
       <c r="R11">
-        <v>9.584396699820351</v>
+        <v>11.029760815818</v>
       </c>
       <c r="S11">
-        <v>0.002706686119513052</v>
+        <v>0.0002946660873335554</v>
       </c>
       <c r="T11">
-        <v>0.002706686119513052</v>
+        <v>0.0002987940903302376</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.83791601881724</v>
+        <v>0.1730576666666667</v>
       </c>
       <c r="H12">
-        <v>1.83791601881724</v>
+        <v>0.519173</v>
       </c>
       <c r="I12">
-        <v>0.01989318152648684</v>
+        <v>0.001801129053028663</v>
       </c>
       <c r="J12">
-        <v>0.01989318152648684</v>
+        <v>0.001812894305157371</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.78500075698686</v>
+        <v>4.340704333333334</v>
       </c>
       <c r="N12">
-        <v>3.78500075698686</v>
+        <v>13.022113</v>
       </c>
       <c r="O12">
-        <v>0.09875532052654094</v>
+        <v>0.1002796450986148</v>
       </c>
       <c r="P12">
-        <v>0.09875532052654094</v>
+        <v>0.1010245634261221</v>
       </c>
       <c r="Q12">
-        <v>6.95651352250153</v>
+        <v>0.7511921636165556</v>
       </c>
       <c r="R12">
-        <v>6.95651352250153</v>
+        <v>6.760729472549</v>
       </c>
       <c r="S12">
-        <v>0.001964557517940871</v>
+        <v>0.0001806165822145184</v>
       </c>
       <c r="T12">
-        <v>0.001964557517940871</v>
+        <v>0.0001831468557162263</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,557 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1730576666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.519173</v>
+      </c>
+      <c r="I13">
+        <v>0.001801129053028663</v>
+      </c>
+      <c r="J13">
+        <v>0.001812894305157371</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.9575255</v>
+      </c>
+      <c r="N13">
+        <v>1.915051</v>
+      </c>
+      <c r="O13">
+        <v>0.02212090710152961</v>
+      </c>
+      <c r="P13">
+        <v>0.0148568201807002</v>
+      </c>
+      <c r="Q13">
+        <v>0.1657071288038333</v>
+      </c>
+      <c r="R13">
+        <v>0.994242772823</v>
+      </c>
+      <c r="S13">
+        <v>3.984260845991304E-05</v>
+      </c>
+      <c r="T13">
+        <v>2.69338446983385E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.145812</v>
+      </c>
+      <c r="H14">
+        <v>0.437436</v>
+      </c>
+      <c r="I14">
+        <v>0.001517564835691852</v>
+      </c>
+      <c r="J14">
+        <v>0.001527477802718592</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>30.90614433333333</v>
+      </c>
+      <c r="N14">
+        <v>92.718433</v>
+      </c>
+      <c r="O14">
+        <v>0.713998684801744</v>
+      </c>
+      <c r="P14">
+        <v>0.719302559836422</v>
+      </c>
+      <c r="Q14">
+        <v>4.506486717532</v>
+      </c>
+      <c r="R14">
+        <v>40.558380457788</v>
+      </c>
+      <c r="S14">
+        <v>0.001083539296785357</v>
+      </c>
+      <c r="T14">
+        <v>0.001098718693588796</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.145812</v>
+      </c>
+      <c r="H15">
+        <v>0.437436</v>
+      </c>
+      <c r="I15">
+        <v>0.001517564835691852</v>
+      </c>
+      <c r="J15">
+        <v>0.001527477802718592</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7.081622</v>
+      </c>
+      <c r="N15">
+        <v>21.244866</v>
+      </c>
+      <c r="O15">
+        <v>0.1636007629981116</v>
+      </c>
+      <c r="P15">
+        <v>0.1648160565567557</v>
+      </c>
+      <c r="Q15">
+        <v>1.032585467064</v>
+      </c>
+      <c r="R15">
+        <v>9.293269203576001</v>
+      </c>
+      <c r="S15">
+        <v>0.0002482747650182909</v>
+      </c>
+      <c r="T15">
+        <v>0.0002517528679220564</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.145812</v>
+      </c>
+      <c r="H16">
+        <v>0.437436</v>
+      </c>
+      <c r="I16">
+        <v>0.001517564835691852</v>
+      </c>
+      <c r="J16">
+        <v>0.001527477802718592</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.340704333333334</v>
+      </c>
+      <c r="N16">
+        <v>13.022113</v>
+      </c>
+      <c r="O16">
+        <v>0.1002796450986148</v>
+      </c>
+      <c r="P16">
+        <v>0.1010245634261221</v>
+      </c>
+      <c r="Q16">
+        <v>0.6329267802520001</v>
+      </c>
+      <c r="R16">
+        <v>5.696341022268</v>
+      </c>
+      <c r="S16">
+        <v>0.0001521808631373166</v>
+      </c>
+      <c r="T16">
+        <v>0.000154312778162738</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.145812</v>
+      </c>
+      <c r="H17">
+        <v>0.437436</v>
+      </c>
+      <c r="I17">
+        <v>0.001517564835691852</v>
+      </c>
+      <c r="J17">
+        <v>0.001527477802718592</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.9575255</v>
+      </c>
+      <c r="N17">
+        <v>1.915051</v>
+      </c>
+      <c r="O17">
+        <v>0.02212090710152961</v>
+      </c>
+      <c r="P17">
+        <v>0.0148568201807002</v>
+      </c>
+      <c r="Q17">
+        <v>0.139618708206</v>
+      </c>
+      <c r="R17">
+        <v>0.837712249236</v>
+      </c>
+      <c r="S17">
+        <v>3.356991075088751E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.269346304500118E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.870665</v>
+      </c>
+      <c r="H18">
+        <v>3.74133</v>
+      </c>
+      <c r="I18">
+        <v>0.01946928526705277</v>
+      </c>
+      <c r="J18">
+        <v>0.01306430775620925</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>30.90614433333333</v>
+      </c>
+      <c r="N18">
+        <v>92.718433</v>
+      </c>
+      <c r="O18">
+        <v>0.713998684801744</v>
+      </c>
+      <c r="P18">
+        <v>0.719302559836422</v>
+      </c>
+      <c r="Q18">
+        <v>57.815042489315</v>
+      </c>
+      <c r="R18">
+        <v>346.89025493589</v>
+      </c>
+      <c r="S18">
+        <v>0.01390104407470565</v>
+      </c>
+      <c r="T18">
+        <v>0.009397190011532136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.83791601881724</v>
-      </c>
-      <c r="H13">
-        <v>1.83791601881724</v>
-      </c>
-      <c r="I13">
-        <v>0.01989318152648684</v>
-      </c>
-      <c r="J13">
-        <v>0.01989318152648684</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.942033558096526</v>
-      </c>
-      <c r="N13">
-        <v>0.942033558096526</v>
-      </c>
-      <c r="O13">
-        <v>0.0245788130437891</v>
-      </c>
-      <c r="P13">
-        <v>0.0245788130437891</v>
-      </c>
-      <c r="Q13">
-        <v>1.731378566689006</v>
-      </c>
-      <c r="R13">
-        <v>1.731378566689006</v>
-      </c>
-      <c r="S13">
-        <v>0.0004889507895856791</v>
-      </c>
-      <c r="T13">
-        <v>0.0004889507895856791</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.870665</v>
+      </c>
+      <c r="H19">
+        <v>3.74133</v>
+      </c>
+      <c r="I19">
+        <v>0.01946928526705277</v>
+      </c>
+      <c r="J19">
+        <v>0.01306430775620925</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>7.081622</v>
+      </c>
+      <c r="N19">
+        <v>21.244866</v>
+      </c>
+      <c r="O19">
+        <v>0.1636007629981116</v>
+      </c>
+      <c r="P19">
+        <v>0.1648160565567557</v>
+      </c>
+      <c r="Q19">
+        <v>13.24734241863</v>
+      </c>
+      <c r="R19">
+        <v>79.48405451178</v>
+      </c>
+      <c r="S19">
+        <v>0.003185189924717726</v>
+      </c>
+      <c r="T19">
+        <v>0.002153207686022247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.870665</v>
+      </c>
+      <c r="H20">
+        <v>3.74133</v>
+      </c>
+      <c r="I20">
+        <v>0.01946928526705277</v>
+      </c>
+      <c r="J20">
+        <v>0.01306430775620925</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>4.340704333333334</v>
+      </c>
+      <c r="N20">
+        <v>13.022113</v>
+      </c>
+      <c r="O20">
+        <v>0.1002796450986148</v>
+      </c>
+      <c r="P20">
+        <v>0.1010245634261221</v>
+      </c>
+      <c r="Q20">
+        <v>8.120003671715001</v>
+      </c>
+      <c r="R20">
+        <v>48.72002203029</v>
+      </c>
+      <c r="S20">
+        <v>0.001952373016903742</v>
+      </c>
+      <c r="T20">
+        <v>0.00131981598753554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.870665</v>
+      </c>
+      <c r="H21">
+        <v>3.74133</v>
+      </c>
+      <c r="I21">
+        <v>0.01946928526705277</v>
+      </c>
+      <c r="J21">
+        <v>0.01306430775620925</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.9575255</v>
+      </c>
+      <c r="N21">
+        <v>1.915051</v>
+      </c>
+      <c r="O21">
+        <v>0.02212090710152961</v>
+      </c>
+      <c r="P21">
+        <v>0.0148568201807002</v>
+      </c>
+      <c r="Q21">
+        <v>1.7912094394575</v>
+      </c>
+      <c r="R21">
+        <v>7.164837757829999</v>
+      </c>
+      <c r="S21">
+        <v>0.0004306782507256534</v>
+      </c>
+      <c r="T21">
+        <v>0.0001940940711193278</v>
       </c>
     </row>
   </sheetData>
